--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339239.7576197912</v>
+        <v>333371.6518936917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4007641.222356121</v>
+        <v>3066682.762492659</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15407201.0825513</v>
+        <v>14484967.69603913</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6012802.568825835</v>
+        <v>6399975.194942832</v>
       </c>
     </row>
     <row r="11">
@@ -716,16 +718,16 @@
         <v>135.7293992974317</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>29.81855126207265</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>99.31363641129188</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,64 +828,64 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>119.5504549011778</v>
+      </c>
+      <c r="W4" t="n">
         <v>135.7293992974317</v>
       </c>
-      <c r="G4" t="n">
+      <c r="X4" t="n">
         <v>135.7293992974317</v>
       </c>
-      <c r="H4" t="n">
+      <c r="Y4" t="n">
         <v>135.7293992974317</v>
-      </c>
-      <c r="I4" t="n">
-        <v>119.5504549011778</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="U5" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T6" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U6" t="n">
-        <v>135.7293992974318</v>
+        <v>29.45648664699739</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S7" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T7" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U7" t="n">
-        <v>81.39848696832989</v>
+        <v>81.39848696832995</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>60.36402868517428</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>96.93109718348455</v>
       </c>
     </row>
     <row r="10">
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>81.39848696832995</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H11" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>51.85199244433831</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>21.94182076836095</v>
       </c>
       <c r="V13" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.336289776625397</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>51.85199244433831</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S16" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T16" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U16" t="n">
-        <v>135.7293992974318</v>
+        <v>21.94182076836095</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>235.4921832098738</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>135.7293992974318</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>119.5504549011779</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>135.7293992974318</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>135.7293992974318</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>135.7293992974318</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.1977568459722</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>95.9550838187259</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>128.1292407675116</v>
+        <v>88.93351440885131</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>77.98390611024949</v>
       </c>
       <c r="W22" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>188.1582211987005</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>143.6532814811978</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -2397,10 +2399,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>42.31426344392277</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2409,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2463,7 +2465,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>29.16706806688746</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>172.6403114459231</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>11.57315202520407</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>303.1727360664845</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>133.467137197124</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2600,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2634,10 +2636,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>81.57705562905906</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -2682,10 +2684,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2694,13 +2696,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>73.80331687887012</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>20.81620099292957</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>60.70050068014596</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>173.8223934894576</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>66.6073460630474</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>158.7034744856297</v>
+        <v>7.431982368242488</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>211.4815380758789</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.50387586212008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>188.1582211987005</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>297.0059693401333</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3117,13 +3119,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>119.6086753939818</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>11.57315202520413</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.50387586212008</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>98.42631755959526</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>79.22147732004943</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>68.19805636032395</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>92.41619425121871</v>
       </c>
       <c r="U37" t="n">
-        <v>257.7395212081473</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>235.356961190757</v>
+        <v>100.4358716628804</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3597,10 +3599,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>210.8079317689781</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.4947577584037</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.9922742241714</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -3746,7 +3748,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>323.2190111681444</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>133.467137197124</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3834,10 +3836,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>99.51704826962602</v>
+        <v>174.0689237038512</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>127.9716792980585</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>268.6107013963112</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>135.7293992974318</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>29.81855126207271</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>272.6828953825802</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>135.7293992974318</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>114.8824974878476</v>
       </c>
       <c r="V45" t="n">
-        <v>119.5504549011779</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>135.7293992974318</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4177,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V46" t="n">
-        <v>81.39848696833005</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,22 +4333,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K2" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L2" t="n">
-        <v>10.85835194379454</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M2" t="n">
-        <v>145.230457248252</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7411328942751</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O2" t="n">
-        <v>314.1132381987325</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4853435031899</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q2" t="n">
         <v>542.917597189727</v>
@@ -4364,13 +4366,13 @@
         <v>40.97810069336288</v>
       </c>
       <c r="V2" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="W2" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="X2" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="Y2" t="n">
         <v>10.85835194379454</v>
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C3" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D3" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E3" t="n">
-        <v>10.85835194379454</v>
+        <v>442.6007927338766</v>
       </c>
       <c r="F3" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G3" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H3" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I3" t="n">
         <v>10.85835194379454</v>
@@ -4413,16 +4415,16 @@
         <v>71.11249847690068</v>
       </c>
       <c r="L3" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="M3" t="n">
         <v>139.8012812763547</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>408.5454918852695</v>
-      </c>
-      <c r="O3" t="n">
-        <v>542.917597189727</v>
       </c>
       <c r="P3" t="n">
         <v>542.917597189727</v>
@@ -4446,13 +4448,13 @@
         <v>542.917597189727</v>
       </c>
       <c r="W3" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X3" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y3" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C4" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D4" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E4" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F4" t="n">
-        <v>405.8171938589878</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G4" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I4" t="n">
         <v>10.85835194379454</v>
@@ -4522,16 +4524,16 @@
         <v>542.917597189727</v>
       </c>
       <c r="V4" t="n">
-        <v>542.917597189727</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W4" t="n">
-        <v>542.917597189727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X4" t="n">
-        <v>542.917597189727</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I5" t="n">
         <v>10.85835194379454</v>
@@ -4568,34 +4570,34 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K5" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L5" t="n">
-        <v>351.6011068255151</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="M5" t="n">
-        <v>485.9732121299726</v>
+        <v>351.601106825515</v>
       </c>
       <c r="N5" t="n">
-        <v>542.9175971897271</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="O5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S5" t="n">
-        <v>405.8171938589879</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="T5" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U5" t="n">
         <v>285.0591586052728</v>
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="C6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="D6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="E6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="F6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="G6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I6" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J6" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K6" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L6" t="n">
-        <v>274.1733865808121</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M6" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N6" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O6" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q6" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R6" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S6" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="T6" t="n">
-        <v>422.159561936012</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="U6" t="n">
-        <v>285.0591586052728</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="V6" t="n">
-        <v>285.0591586052728</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="W6" t="n">
-        <v>147.9587552745337</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="X6" t="n">
-        <v>147.9587552745337</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.9587552745337</v>
+        <v>179.1784947070355</v>
       </c>
     </row>
     <row r="7">
@@ -4726,7 +4728,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L7" t="n">
         <v>145.0696190886975</v>
@@ -4753,7 +4755,7 @@
         <v>230.1794491819377</v>
       </c>
       <c r="T7" t="n">
-        <v>93.07904585119849</v>
+        <v>93.07904585119854</v>
       </c>
       <c r="U7" t="n">
         <v>10.85835194379454</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4805,7 +4807,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L8" t="n">
         <v>145.230457248252</v>
@@ -4814,40 +4816,40 @@
         <v>279.6025625527094</v>
       </c>
       <c r="N8" t="n">
-        <v>413.9746678571669</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="O8" t="n">
-        <v>448.4853435031901</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X8" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>445.00739801449</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85835194379454</v>
+        <v>445.00739801449</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>445.00739801449</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K9" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="N9" t="n">
         <v>139.8012812763547</v>
-      </c>
-      <c r="L9" t="n">
-        <v>139.8012812763547</v>
-      </c>
-      <c r="M9" t="n">
-        <v>139.8012812763547</v>
-      </c>
-      <c r="N9" t="n">
-        <v>274.1733865808121</v>
       </c>
       <c r="O9" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="P9" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U9" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V9" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>445.00739801449</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F10" t="n">
-        <v>405.8171938589878</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G10" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H10" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
         <v>10.85835194379454</v>
@@ -4963,7 +4965,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L10" t="n">
         <v>145.0696190886975</v>
@@ -4981,31 +4983,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>93.07904585119854</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="C11" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="D11" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="E11" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="F11" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="G11" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="H11" t="n">
         <v>147.9587552745337</v>
-      </c>
-      <c r="C11" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="D11" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="E11" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="F11" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="G11" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10.85835194379454</v>
       </c>
       <c r="I11" t="n">
         <v>10.85835194379454</v>
@@ -5045,46 +5047,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L11" t="n">
-        <v>145.230457248252</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="M11" t="n">
-        <v>279.6025625527094</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N11" t="n">
-        <v>413.9746678571669</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O11" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P11" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q11" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R11" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S11" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T11" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U11" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V11" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W11" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X11" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y11" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C12" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D12" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E12" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F12" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G12" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H12" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I12" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J12" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K12" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L12" t="n">
-        <v>71.11249847690068</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M12" t="n">
-        <v>139.8012812763547</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N12" t="n">
-        <v>139.8012812763547</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O12" t="n">
-        <v>274.1733865808121</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P12" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R12" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S12" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T12" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U12" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V12" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W12" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X12" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.9587552745337</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="C13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="D13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J13" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="K13" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L13" t="n">
         <v>145.0696190886975</v>
@@ -5218,31 +5220,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R13" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S13" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T13" t="n">
-        <v>542.917597189727</v>
+        <v>93.07904585119854</v>
       </c>
       <c r="U13" t="n">
-        <v>542.917597189727</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="V13" t="n">
-        <v>422.159561936012</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="W13" t="n">
-        <v>285.0591586052728</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="X13" t="n">
-        <v>147.9587552745337</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.9587552745337</v>
+        <v>70.91559052962182</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="C14" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="D14" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="E14" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="F14" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H14" t="n">
         <v>10.85835194379454</v>
@@ -5279,49 +5281,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K14" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L14" t="n">
-        <v>139.8012812763547</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M14" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N14" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O14" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P14" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q14" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R14" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S14" t="n">
-        <v>422.159561936012</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T14" t="n">
-        <v>422.159561936012</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U14" t="n">
-        <v>285.0591586052728</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V14" t="n">
-        <v>147.9587552745337</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W14" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X14" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.24063725373355</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="C15" t="n">
-        <v>79.24063725373355</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="D15" t="n">
-        <v>79.24063725373355</v>
+        <v>479.7633386113138</v>
       </c>
       <c r="E15" t="n">
-        <v>79.24063725373355</v>
+        <v>342.6629352805746</v>
       </c>
       <c r="F15" t="n">
-        <v>79.24063725373355</v>
+        <v>207.969137230449</v>
       </c>
       <c r="G15" t="n">
         <v>79.24063725373355</v>
@@ -5355,52 +5357,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J15" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K15" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L15" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M15" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N15" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O15" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P15" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q15" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R15" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S15" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T15" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U15" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="V15" t="n">
-        <v>216.3410405844727</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="W15" t="n">
-        <v>79.24063725373355</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="X15" t="n">
-        <v>79.24063725373355</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="Y15" t="n">
-        <v>79.24063725373355</v>
+        <v>483.1333282846728</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="C16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="D16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J16" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K16" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L16" t="n">
         <v>145.0696190886975</v>
@@ -5446,40 +5448,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O16" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P16" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q16" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R16" t="n">
-        <v>422.159561936012</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S16" t="n">
-        <v>285.0591586052728</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T16" t="n">
-        <v>147.9587552745337</v>
+        <v>93.07904585119854</v>
       </c>
       <c r="U16" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="V16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="W16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="X16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.85835194379457</v>
+        <v>70.91559052962182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.85835194379454</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="C17" t="n">
-        <v>10.85835194379454</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="D17" t="n">
-        <v>10.85835194379454</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E17" t="n">
-        <v>10.85835194379454</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F17" t="n">
-        <v>10.85835194379454</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G17" t="n">
-        <v>10.85835194379454</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H17" t="n">
-        <v>10.85835194379454</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K17" t="n">
-        <v>145.230457248252</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L17" t="n">
-        <v>145.230457248252</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M17" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N17" t="n">
-        <v>279.6025625527094</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O17" t="n">
-        <v>408.5454918852696</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P17" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q17" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U17" t="n">
-        <v>405.8171938589879</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V17" t="n">
-        <v>285.0591586052728</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W17" t="n">
-        <v>147.9587552745337</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X17" t="n">
-        <v>10.85835194379454</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.85835194379454</v>
+        <v>2010.574518555815</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.85835194379454</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>10.85835194379454</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>10.85835194379454</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>10.85835194379454</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>10.85835194379454</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>145.230457248252</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N18" t="n">
-        <v>274.1733865808121</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O18" t="n">
-        <v>408.5454918852696</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>542.9175971897271</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>405.8171938589879</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>285.0591586052728</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9587552745337</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>10.85835194379454</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>10.85835194379454</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.85835194379454</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K19" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N19" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O19" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>422.159561936012</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>285.0591586052728</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V19" t="n">
-        <v>147.9587552745337</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1599.886427633425</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="C20" t="n">
-        <v>1599.886427633425</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="D20" t="n">
-        <v>1599.886427633425</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.100707739532</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="F20" t="n">
-        <v>790.949517049702</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="G20" t="n">
-        <v>374.84553050389</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H20" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5774,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T20" t="n">
-        <v>1876.853858790972</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U20" t="n">
-        <v>1876.853858790972</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V20" t="n">
-        <v>1876.853858790972</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W20" t="n">
-        <v>1876.853858790972</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X20" t="n">
-        <v>1876.853858790972</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="Y20" t="n">
-        <v>1876.853858790972</v>
+        <v>644.5870563847161</v>
       </c>
     </row>
     <row r="21">
@@ -5811,19 +5813,19 @@
         <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>170.7527560779147</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="E21" t="n">
-        <v>170.7527560779147</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F21" t="n">
-        <v>170.7527560779147</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G21" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H21" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5844,10 +5846,10 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5941,16 +5943,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V22" t="n">
-        <v>286.8932618362315</v>
+        <v>495.3118790135463</v>
       </c>
       <c r="W22" t="n">
-        <v>42.02425610119923</v>
+        <v>495.3118790135463</v>
       </c>
       <c r="X22" t="n">
-        <v>42.02425610119923</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y22" t="n">
         <v>42.02425610119923</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>232.0830653928159</v>
+        <v>569.0623394968745</v>
       </c>
       <c r="C23" t="n">
-        <v>232.0830653928159</v>
+        <v>187.1285808296819</v>
       </c>
       <c r="D23" t="n">
-        <v>232.0830653928159</v>
+        <v>187.1285808296819</v>
       </c>
       <c r="E23" t="n">
-        <v>232.0830653928159</v>
+        <v>187.1285808296819</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02425610119923</v>
+        <v>187.1285808296819</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02425610119923</v>
+        <v>187.1285808296819</v>
       </c>
       <c r="H23" t="n">
         <v>42.02425610119923</v>
@@ -6023,16 +6025,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V23" t="n">
-        <v>1764.233530955903</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W23" t="n">
-        <v>1401.698600813504</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X23" t="n">
-        <v>1019.668460334997</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y23" t="n">
-        <v>626.126604910835</v>
+        <v>963.1058790148937</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.879904359699</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="C24" t="n">
-        <v>300.1762316006536</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="D24" t="n">
-        <v>257.434551354267</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E24" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F24" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
         <v>110.4065414111382</v>
@@ -6066,13 +6068,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L24" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M24" t="n">
         <v>737.8796590913968</v>
@@ -6111,7 +6113,7 @@
         <v>813.8206734913811</v>
       </c>
       <c r="Y24" t="n">
-        <v>621.2993471409599</v>
+        <v>784.3589885753331</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
         <v>42.02425610119923</v>
@@ -6166,31 +6168,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>211.6402256395189</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>211.6402256395189</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6402256395189</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="V25" t="n">
-        <v>211.6402256395189</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="W25" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X25" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.2593430370422</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C26" t="n">
-        <v>348.2593430370422</v>
+        <v>549.6635109720808</v>
       </c>
       <c r="D26" t="n">
-        <v>42.02425610119923</v>
+        <v>176.8395461993043</v>
       </c>
       <c r="E26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T26" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U26" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.36626908211</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W26" t="n">
-        <v>1123.831338939711</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X26" t="n">
-        <v>741.8011984612042</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y26" t="n">
-        <v>348.2593430370422</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>703.195773126389</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C27" t="n">
-        <v>620.7947068344101</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D27" t="n">
         <v>620.7947068344101</v>
@@ -6309,19 +6311,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L27" t="n">
-        <v>697.5908003646097</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M27" t="n">
-        <v>1182.624153874836</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N27" t="n">
-        <v>1693.889799997958</v>
+        <v>1328.067954827843</v>
       </c>
       <c r="O27" t="n">
-        <v>2086.089750782109</v>
+        <v>1720.267905611993</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6330,25 +6332,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1594.538121201551</v>
       </c>
       <c r="W27" t="n">
-        <v>1253.053530380276</v>
+        <v>1353.222252434861</v>
       </c>
       <c r="X27" t="n">
-        <v>1055.136542258071</v>
+        <v>1155.305264312656</v>
       </c>
       <c r="Y27" t="n">
-        <v>862.6152159076499</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.3378931518517</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C28" t="n">
-        <v>103.3378931518517</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D28" t="n">
-        <v>103.3378931518517</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E28" t="n">
-        <v>103.3378931518517</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="F28" t="n">
-        <v>103.3378931518517</v>
+        <v>514.5196943513969</v>
       </c>
       <c r="G28" t="n">
-        <v>103.3378931518517</v>
+        <v>345.5999457192469</v>
       </c>
       <c r="H28" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I28" t="n">
         <v>42.02425610119923</v>
@@ -6403,31 +6405,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R28" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S28" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T28" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U28" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V28" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W28" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X28" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y28" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>423.9580147683919</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="C29" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D29" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E29" t="n">
-        <v>42.02425610119923</v>
+        <v>872.279433336841</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740045</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6485,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U29" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V29" t="n">
-        <v>1168.523085389297</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W29" t="n">
-        <v>805.9881552468985</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X29" t="n">
-        <v>423.9580147683919</v>
+        <v>2033.93265752153</v>
       </c>
       <c r="Y29" t="n">
-        <v>423.9580147683919</v>
+        <v>2033.93265752153</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L30" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
@@ -6567,10 +6569,10 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U30" t="n">
         <v>1940.906265175487</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="C31" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="D31" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="E31" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="F31" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="G31" t="n">
         <v>1569.153559814029</v>
@@ -6643,28 +6645,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R31" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="S31" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="T31" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="U31" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="V31" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="W31" t="n">
-        <v>1815.05640357736</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="X31" t="n">
-        <v>1583.803939472736</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="Y31" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.0830653928159</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="C32" t="n">
-        <v>232.0830653928159</v>
+        <v>1325.737190968607</v>
       </c>
       <c r="D32" t="n">
-        <v>232.0830653928159</v>
+        <v>1325.737190968607</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>930.9514710747135</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>930.9514710747135</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>514.8474845289015</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
@@ -6734,16 +6736,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V32" t="n">
-        <v>1764.233530955903</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W32" t="n">
-        <v>1401.698600813504</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X32" t="n">
-        <v>1019.668460334997</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y32" t="n">
-        <v>626.126604910835</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>589.5324332664632</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C33" t="n">
-        <v>427.8287605074179</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D33" t="n">
-        <v>288.99012349763</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E33" t="n">
-        <v>141.9621135545012</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F33" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
         <v>42.02425610119923</v>
@@ -6780,22 +6782,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L33" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P33" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
@@ -6807,22 +6809,22 @@
         <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>1827.596474240397</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1609.101681838707</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1380.706059287041</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1139.390190520351</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>941.4732023981452</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y33" t="n">
-        <v>748.951876047724</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6885,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S34" t="n">
-        <v>2089.52275250925</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T34" t="n">
-        <v>1856.343799324929</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U34" t="n">
-        <v>1569.153559814029</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V34" t="n">
-        <v>1569.153559814029</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W34" t="n">
-        <v>1569.153559814029</v>
+        <v>1815.05640357736</v>
       </c>
       <c r="X34" t="n">
-        <v>1569.153559814029</v>
+        <v>1583.803939472736</v>
       </c>
       <c r="Y34" t="n">
         <v>1569.153559814029</v>
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.9580147683919</v>
+        <v>141.4447788886692</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>141.4447788886692</v>
       </c>
       <c r="D35" t="n">
         <v>42.02425610119923</v>
@@ -6932,22 +6934,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6968,19 +6970,19 @@
         <v>2010.574518555815</v>
       </c>
       <c r="U35" t="n">
-        <v>1930.552824293138</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V35" t="n">
-        <v>1593.57355018908</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W35" t="n">
-        <v>1593.57355018908</v>
+        <v>1311.060314309357</v>
       </c>
       <c r="X35" t="n">
-        <v>1211.543409710573</v>
+        <v>929.0301738308503</v>
       </c>
       <c r="Y35" t="n">
-        <v>818.001554286411</v>
+        <v>535.4883184066883</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>552.412421524471</v>
       </c>
       <c r="C36" t="n">
-        <v>300.1762316006536</v>
+        <v>552.412421524471</v>
       </c>
       <c r="D36" t="n">
-        <v>161.3375945908657</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E36" t="n">
-        <v>110.4065414111382</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F36" t="n">
-        <v>110.4065414111382</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G36" t="n">
-        <v>110.4065414111382</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
@@ -7017,22 +7019,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>407.8461012713149</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M36" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N36" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O36" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>535.5461600008207</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="R37" t="n">
-        <v>535.5461600008207</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="S37" t="n">
-        <v>535.5461600008207</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="T37" t="n">
-        <v>302.3672068164996</v>
+        <v>1969.325772550803</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>1969.325772550803</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>1969.325772550803</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>1969.325772550803</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>1738.073308446179</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.302003668149</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="C38" t="n">
-        <v>1047.368245000957</v>
+        <v>1325.235506874749</v>
       </c>
       <c r="D38" t="n">
-        <v>674.5442802281802</v>
+        <v>952.4115421019731</v>
       </c>
       <c r="E38" t="n">
-        <v>279.7585603342871</v>
+        <v>557.6258222080799</v>
       </c>
       <c r="F38" t="n">
-        <v>279.7585603342871</v>
+        <v>143.4746315182502</v>
       </c>
       <c r="G38" t="n">
         <v>42.02425610119923</v>
@@ -7169,10 +7171,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7196,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C39" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D39" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E39" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F39" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G39" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H39" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
@@ -7260,13 +7262,13 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O39" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P39" t="n">
         <v>2101.212805059961</v>
@@ -7278,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T39" t="n">
-        <v>1759.728214238687</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.233421836997</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="V39" t="n">
-        <v>1312.837799285331</v>
+        <v>1684.13207867428</v>
       </c>
       <c r="W39" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.521930518641</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="40">
@@ -7354,28 +7356,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R40" t="n">
-        <v>1951.691023674339</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S40" t="n">
-        <v>1752.708928498409</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T40" t="n">
-        <v>1752.708928498409</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.708928498409</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V40" t="n">
-        <v>1752.708928498409</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W40" t="n">
-        <v>1752.708928498409</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X40" t="n">
-        <v>1752.708928498409</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y40" t="n">
-        <v>1752.708928498409</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>931.5972696392735</v>
+        <v>1296.083027997165</v>
       </c>
       <c r="C41" t="n">
-        <v>549.6635109720808</v>
+        <v>914.149269329972</v>
       </c>
       <c r="D41" t="n">
-        <v>176.8395461993043</v>
+        <v>541.3253045571955</v>
       </c>
       <c r="E41" t="n">
-        <v>176.8395461993043</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="F41" t="n">
-        <v>176.8395461993043</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G41" t="n">
-        <v>176.8395461993043</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H41" t="n">
-        <v>176.8395461993043</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119917</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0485455037335</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7436,25 +7438,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="X41" t="n">
-        <v>1719.182664581455</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="Y41" t="n">
-        <v>1325.640809157293</v>
+        <v>1296.083027997165</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L42" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M42" t="n">
         <v>737.8796590913968</v>
@@ -7512,28 +7514,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R42" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.906265175487</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.510642623821</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W42" t="n">
-        <v>1471.194773857131</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X42" t="n">
-        <v>1273.277785734925</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y42" t="n">
-        <v>1080.756459384504</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1868.03385187564</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C43" t="n">
-        <v>1698.41788233732</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D43" t="n">
         <v>1569.153559814029</v>
@@ -7597,22 +7599,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T43" t="n">
-        <v>1868.03385187564</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U43" t="n">
-        <v>1868.03385187564</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.03385187564</v>
+        <v>1840.477500618384</v>
       </c>
       <c r="W43" t="n">
-        <v>1868.03385187564</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X43" t="n">
-        <v>1868.03385187564</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y43" t="n">
-        <v>1868.03385187564</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>178.0785040241021</v>
+        <v>1126.398434748134</v>
       </c>
       <c r="C44" t="n">
-        <v>178.0785040241021</v>
+        <v>1126.398434748134</v>
       </c>
       <c r="D44" t="n">
-        <v>40.97810069336293</v>
+        <v>1126.398434748134</v>
       </c>
       <c r="E44" t="n">
-        <v>40.97810069336293</v>
+        <v>731.6127148542412</v>
       </c>
       <c r="F44" t="n">
-        <v>10.85835194379454</v>
+        <v>317.4615241644115</v>
       </c>
       <c r="G44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J44" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>139.8012812763547</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>274.1733865808121</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5454918852696</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>542.9175971897271</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
-        <v>542.9175971897271</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P44" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q44" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>452.2793106855804</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>452.2793106855804</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T44" t="n">
-        <v>315.1789073548413</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U44" t="n">
-        <v>315.1789073548413</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V44" t="n">
-        <v>315.1789073548413</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W44" t="n">
-        <v>315.1789073548413</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X44" t="n">
-        <v>315.1789073548413</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.1789073548413</v>
+        <v>1520.441974266153</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>147.9587552745337</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C45" t="n">
-        <v>10.85835194379454</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D45" t="n">
-        <v>10.85835194379454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E45" t="n">
-        <v>10.85835194379454</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F45" t="n">
-        <v>10.85835194379454</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>71.11249847690068</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>71.11249847690068</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
-        <v>71.11249847690068</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M45" t="n">
-        <v>71.11249847690068</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N45" t="n">
-        <v>139.8012812763547</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O45" t="n">
-        <v>274.1733865808121</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P45" t="n">
-        <v>408.5454918852696</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q45" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S45" t="n">
-        <v>542.9175971897271</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T45" t="n">
-        <v>542.9175971897271</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U45" t="n">
-        <v>542.9175971897271</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V45" t="n">
-        <v>422.159561936012</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W45" t="n">
-        <v>285.0591586052728</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X45" t="n">
-        <v>147.9587552745337</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y45" t="n">
-        <v>147.9587552745337</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>44.46253968843799</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>381.4854669658996</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>479.9491134615893</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>504.3802558434161</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>367.2798525126769</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>367.2798525126769</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>367.2798525126769</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>367.2798525126769</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V46" t="n">
-        <v>285.0591586052728</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W46" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>309.0683871382489</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M2" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>221.2573825015464</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
         <v>322.6841960775522</v>
@@ -7997,7 +7999,7 @@
         <v>323.6062083485882</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,10 +8063,10 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>181.9580424594852</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>251.2133018590716</v>
+        <v>184.8665114499773</v>
       </c>
       <c r="N3" t="n">
         <v>242.4445403651401</v>
@@ -8073,7 +8075,7 @@
         <v>251.5888479085428</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8219,16 +8221,16 @@
         <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N5" t="n">
-        <v>243.917695040669</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>244.4743776485593</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
@@ -8292,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>181.9580424594851</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>245.7292857258421</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8453,22 +8455,22 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>221.2573825015464</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8140651094368</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8529,10 +8531,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>181.378778055004</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
@@ -8541,16 +8543,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>242.4445403651401</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8693,22 +8695,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L11" t="n">
-        <v>327.2896114605464</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M11" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N11" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>317.2001799443227</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,28 +8768,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>242.2415523308689</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M12" t="n">
-        <v>184.8665114499773</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N12" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O12" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,22 +8929,22 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K14" t="n">
-        <v>309.0683871382489</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M14" t="n">
-        <v>322.8857137945909</v>
+        <v>317.4016976613613</v>
       </c>
       <c r="N14" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P14" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q14" t="n">
         <v>180.6233730229902</v>
@@ -9003,28 +9005,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>181.9580424594851</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>245.7292857258421</v>
       </c>
       <c r="N15" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q15" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K17" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>317.2001799443227</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>323.6062083485883</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9243,22 +9245,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>251.2133018590717</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N18" t="n">
-        <v>236.9605242319105</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9416,7 +9418,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9492,13 +9494,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>367.9315448499079</v>
       </c>
       <c r="P21" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>448.8511326829348</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9890,10 +9892,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P26" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9957,7 +9959,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,10 +9971,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>124.1300184260142</v>
+        <v>334.281751137652</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10188,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10209,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,10 +10430,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10443,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10665,13 +10667,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10683,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10908,7 +10910,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>376.4077763449607</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10917,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11060,7 +11062,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,16 +11138,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>217.0424937332492</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>309.0683871382489</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>176.0977499560457</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>244.5836053215751</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q45" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22604,7 +22606,7 @@
         <v>116.6070836257142</v>
       </c>
       <c r="V2" t="n">
-        <v>303.7909301009454</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -22613,7 +22615,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>359.7878856078477</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09584905601653</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3572367340231</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>46.24409343240559</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22686,10 +22688,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>119.3522551778452</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>60.20841894355161</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -22714,16 +22716,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>15.22644912704891</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>31.50115184839674</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>22.04951947108717</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>23.21055905217042</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -22762,16 +22764,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>138.5774964959838</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -22802,7 +22804,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>35.3596275058602</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.6272863185178</v>
+        <v>49.62728631851783</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>192.2968055442263</v>
       </c>
       <c r="U5" t="n">
-        <v>132.786028021968</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -22878,10 +22880,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T6" t="n">
-        <v>67.24779789449671</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U6" t="n">
-        <v>80.58044518024116</v>
+        <v>186.8533578306755</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2971642743338</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S7" t="n">
-        <v>75.84326567291754</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T7" t="n">
-        <v>95.11776435504618</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U7" t="n">
-        <v>202.9198501474612</v>
+        <v>202.9198501474611</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23030,16 +23032,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>209.9426067574859</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>214.0590264618402</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="9">
@@ -23106,19 +23108,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>155.9458157924986</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>93.66501590343239</v>
       </c>
     </row>
     <row r="10">
@@ -23188,16 +23190,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>23.21055905217045</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>202.9198501474611</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23267,16 +23269,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>290.4592238817535</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H11" t="n">
-        <v>193.763662361232</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>35.3596275058602</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>102.564901905121</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -23324,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23339,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>40.53618113027703</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -23352,10 +23354,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>47.08648643443063</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>15.54209281995534</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -23416,7 +23418,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -23437,7 +23439,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>262.3765163474301</v>
       </c>
       <c r="V13" t="n">
-        <v>138.5774964959838</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23501,16 +23503,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>361.0193114328816</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.80623071477164</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -23577,16 +23579,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>134.1139608630646</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>174.2596738818111</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -23674,7 +23676,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.47610867058764</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S16" t="n">
-        <v>75.84326567291754</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T16" t="n">
-        <v>95.11776435504618</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U16" t="n">
-        <v>148.5889378183593</v>
+        <v>262.3765163474301</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23735,22 +23737,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>133.6035419151749</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23786,16 +23788,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>214.0590264618401</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>51.06885349824287</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>96.759389576495</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>90.38226702871759</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,16 +23943,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>111.2967087513</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>122.3985520997298</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>147.5654381703431</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.9053472768667</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
@@ -23975,19 +23977,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>315.987862861628</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24051,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>9.32100987217845</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -24060,13 +24062,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>180.1440452869121</v>
       </c>
       <c r="W22" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -24215,13 +24217,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>221.8514575842309</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>185.839780177466</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24263,7 +24265,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24285,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>95.13598719576727</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,10 +24299,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>161.4290450200295</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24366,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -24406,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>38.93235352442619</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>271.7216854425708</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>65.92298905856416</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>257.3707254978302</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
@@ -24488,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
         <v>222.1153568062989</v>
@@ -24500,10 +24502,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>78.50958040239578</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>116.7927962080468</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -24610,16 +24612,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>130.1396474315511</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>97.07841808837296</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>59.456666199969</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24655,7 +24657,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>159.7870878735605</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>311.6024930106742</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24807,13 +24809,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>57.60636999204326</v>
+        <v>208.8778621094304</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.7789187685189</v>
@@ -24883,7 +24885,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>211.5726649703493</v>
@@ -24898,13 +24900,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>17.45840138769913</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.3109313575256</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>202.6796414962537</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>32.48709231853053</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25005,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -25047,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>67.18957740169289</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>199.9995129451452</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>205.3109313575256</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>270.6694075654534</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -25208,13 +25210,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>173.1150056030964</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>89.62719199312433</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>157.7789187685189</v>
@@ -25363,10 +25365,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4309694012592</v>
       </c>
       <c r="U37" t="n">
-        <v>26.57881590764379</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25375,7 +25377,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>176.5859854895969</v>
+        <v>311.5070750174734</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>28.09477831004492</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>33.10135532851325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -25594,19 +25596,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
-        <v>14.58039074617795</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>15.7076357194797</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>67.61885152680975</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
@@ -25646,7 +25648,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>37.62188960616791</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
@@ -25691,7 +25693,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>116.7927962080469</v>
+        <v>42.2409207738217</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>23.5694949424564</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -25837,16 +25839,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>14.68413607146363</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>254.3737048254072</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>380.1911275208586</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>139.2600512977737</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
@@ -25931,7 +25933,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>24.35723673402308</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>101.4273469898254</v>
       </c>
       <c r="V45" t="n">
-        <v>106.5612114249714</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>60.20841894355158</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>211.5726649703493</v>
@@ -26077,19 +26079,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V46" t="n">
-        <v>176.7294644288316</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387590.705597272</v>
+        <v>387590.7055972716</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387590.7055972719</v>
+        <v>387590.7055972717</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387590.7055972719</v>
+        <v>387590.7055972717</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387590.7055972715</v>
+        <v>387590.7055972717</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387590.7055972716</v>
+        <v>387590.7055972717</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387590.7055972717</v>
+        <v>664260.7215509247</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664260.7215509251</v>
+        <v>664260.7215509247</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664260.7215509248</v>
+        <v>664260.7215509247</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509246</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387590.7055972719</v>
+        <v>664260.7215509252</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64598.45093287861</v>
+        <v>64598.4509328786</v>
       </c>
       <c r="C2" t="n">
+        <v>64598.45093287859</v>
+      </c>
+      <c r="D2" t="n">
         <v>64598.45093287862</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64598.45093287861</v>
       </c>
       <c r="E2" t="n">
         <v>64598.45093287861</v>
       </c>
       <c r="F2" t="n">
-        <v>64598.45093287863</v>
+        <v>64598.45093287861</v>
       </c>
       <c r="G2" t="n">
-        <v>64598.45093287862</v>
+        <v>110710.1202584875</v>
       </c>
       <c r="H2" t="n">
         <v>110710.1202584875</v>
@@ -26353,7 +26355,7 @@
         <v>110710.1202584875</v>
       </c>
       <c r="P2" t="n">
-        <v>64598.45093287861</v>
+        <v>110710.1202584875</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.04348075321</v>
+        <v>45486.0434807532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106776.3355122783</v>
       </c>
       <c r="H3" t="n">
-        <v>105110.517935065</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93751.32501729493</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>117.6979542513729</v>
       </c>
       <c r="G4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="H4" t="n">
+        <v>399.9854922104111</v>
+      </c>
+      <c r="I4" t="n">
         <v>399.9854922104112</v>
       </c>
-      <c r="I4" t="n">
-        <v>399.9854922104111</v>
-      </c>
       <c r="J4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="K4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="L4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="M4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="N4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="O4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="P4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104112</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>41879.94747728384</v>
       </c>
       <c r="C5" t="n">
-        <v>41879.94747728385</v>
+        <v>41879.94747728384</v>
       </c>
       <c r="D5" t="n">
-        <v>41879.94747728385</v>
+        <v>41879.94747728384</v>
       </c>
       <c r="E5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="F5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="G5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="H5" t="n">
         <v>31938.43463691141</v>
@@ -26509,7 +26511,7 @@
         <v>31938.43463691141</v>
       </c>
       <c r="P5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-22885.23797940982</v>
       </c>
       <c r="C6" t="n">
-        <v>22600.80550134339</v>
+        <v>22600.80550134338</v>
       </c>
       <c r="D6" t="n">
-        <v>22600.80550134338</v>
+        <v>22600.80550134341</v>
       </c>
       <c r="E6" t="n">
         <v>56228.40550134338</v>
       </c>
       <c r="F6" t="n">
-        <v>56228.4055013434</v>
+        <v>56228.40550134338</v>
       </c>
       <c r="G6" t="n">
-        <v>56228.40550134339</v>
+        <v>-28404.63538291262</v>
       </c>
       <c r="H6" t="n">
-        <v>-26738.81780569936</v>
+        <v>78371.70012936569</v>
       </c>
       <c r="I6" t="n">
-        <v>78371.70012936566</v>
+        <v>78371.70012936569</v>
       </c>
       <c r="J6" t="n">
-        <v>42858.91717958848</v>
+        <v>42858.91717958845</v>
       </c>
       <c r="K6" t="n">
-        <v>78371.70012936572</v>
+        <v>78371.70012936571</v>
       </c>
       <c r="L6" t="n">
-        <v>78371.70012936566</v>
+        <v>78371.70012936568</v>
       </c>
       <c r="M6" t="n">
-        <v>78371.70012936566</v>
+        <v>78371.70012936568</v>
       </c>
       <c r="N6" t="n">
         <v>78371.70012936566</v>
       </c>
       <c r="O6" t="n">
+        <v>-15379.62488792923</v>
+      </c>
+      <c r="P6" t="n">
         <v>78371.70012936568</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56228.40550134338</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>135.7293992974317</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="H4" t="n">
         <v>525.3032012649903</v>
@@ -26829,7 +26831,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="H4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>34.85926832931631</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>135.7293992974317</v>
@@ -34717,7 +34719,7 @@
         <v>135.7293992974317</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>69.38260888833739</v>
-      </c>
-      <c r="M3" t="n">
-        <v>135.7293992974317</v>
       </c>
       <c r="N3" t="n">
         <v>135.7293992974317</v>
@@ -34793,7 +34795,7 @@
         <v>135.7293992974317</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N5" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="O5" t="n">
         <v>57.51958086843889</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O6" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931628</v>
       </c>
       <c r="O8" t="n">
-        <v>34.85926832931634</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>69.38260888833736</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P9" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>135.7293992974318</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="M11" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M12" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="L14" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="M14" t="n">
         <v>130.2453831642022</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>135.7293992974318</v>
-      </c>
       <c r="N14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="N15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K17" t="n">
-        <v>135.7293992974318</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>130.2453831642022</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>135.7293992974318</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>135.7293992974318</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N18" t="n">
-        <v>130.2453831642022</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>135.7293992974318</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36212,13 +36214,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="P21" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>333.3672301212949</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36610,10 +36612,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P26" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36689,10 +36691,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>15.27581240187084</v>
+        <v>225.4275451135086</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36929,7 +36931,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37163,10 +37165,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N36" t="n">
         <v>516.4299455789112</v>
@@ -37403,7 +37405,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
@@ -37628,7 +37630,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>260.9238737833207</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37637,7 +37639,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>489.93268031336</v>
+        <v>101.5585911716093</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>130.2453831642022</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>69.38260888833736</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>135.7293992974318</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94362398448833</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333371.6518936917</v>
+        <v>259283.3136157069</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3066682.762492659</v>
+        <v>714286.6128340084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14484967.69603913</v>
+        <v>12179384.22975867</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6399975.194942832</v>
+        <v>7680928.38050172</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>135.7293992974317</v>
+        <v>98.42631755959526</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.81855126207265</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>99.31363641129188</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.84765070733263</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>135.7293992974317</v>
+        <v>25.56959774238913</v>
       </c>
       <c r="T5" t="n">
-        <v>29.81855126207263</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>135.7293992974317</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>135.7293992974317</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>29.45648664699739</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>81.39848696832995</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>34.683711691062</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>119.5504549011778</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>135.7293992974317</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>18.90723637886414</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>135.7293992974317</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1232,7 +1232,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>96.93109718348455</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.7293992974317</v>
+        <v>91.93139158138763</v>
       </c>
       <c r="S10" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>81.39848696832995</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>119.5504549011778</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>135.7293992974317</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>135.7293992974317</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>71.97534015143927</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>119.5504549011778</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>135.7293992974317</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>135.7293992974317</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>135.7293992974317</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>56.32182028554102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.94182076836095</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>29.81855126207263</v>
+        <v>267.2251096541133</v>
       </c>
       <c r="F14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>135.7293992974317</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>3.336289776625397</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>135.7293992974317</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>9.863536509526716</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>90.87914143716708</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>21.94182076836095</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>334.5422890941479</v>
       </c>
       <c r="D17" t="n">
-        <v>235.4921832098738</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,10 +1931,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>268.6107013963115</v>
+        <v>13.48037621410397</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>95.9550838187259</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>34.683711691062</v>
       </c>
       <c r="T20" t="n">
         <v>222.1153568062989</v>
@@ -2165,19 +2165,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>88.93351440885131</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>168.7733238636743</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V22" t="n">
-        <v>77.98390611024949</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>143.6532814811978</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>247.8392703824721</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2408,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2465,7 +2465,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.16706806688746</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.3183371157911</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.57315202520407</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>217.0958694813929</v>
       </c>
       <c r="E26" t="n">
-        <v>133.467137197124</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2702,7 +2702,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.80331687887012</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="28">
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.81620099292957</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.9429466803539</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>306.1457132660284</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>66.6073460630474</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>7.431982368242488</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>177.0990279530006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>211.4815380758789</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>297.0059693401333</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.03791047780206</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>22.6055084580363</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.50387586212008</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>98.42631755959526</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>199.1028184013377</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>68.19805636032395</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>25.19859617292228</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>92.41619425121871</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -3517,7 +3517,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>100.4358716628804</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>57.49323211437453</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T39" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>210.8079317689781</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>242.4203156776819</v>
+        <v>85.66489655717932</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>323.2190111681444</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>76.74079083586439</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3830,10 +3830,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>174.0689237038512</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>225.2938802726981</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.6107013963112</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>272.6828953825802</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>346.5898699770496</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>114.8824974878476</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>243.4438153256983</v>
+        <v>235.9510752683593</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K2" t="n">
-        <v>139.8012812763547</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1733865808121</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M2" t="n">
-        <v>274.1733865808121</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1733865808121</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O2" t="n">
-        <v>408.5454918852695</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P2" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q2" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>452.2793106855803</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>315.1789073548412</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>178.078504024102</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>40.97810069336288</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="V2" t="n">
-        <v>40.97810069336288</v>
+        <v>1574.174721664286</v>
       </c>
       <c r="W2" t="n">
-        <v>40.97810069336288</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X2" t="n">
-        <v>40.97810069336288</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.85835194379454</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542.917597189727</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C3" t="n">
-        <v>542.917597189727</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D3" t="n">
-        <v>542.917597189727</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E3" t="n">
-        <v>442.6007927338766</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F3" t="n">
-        <v>307.9069946837509</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G3" t="n">
-        <v>179.1784947070355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H3" t="n">
-        <v>79.24063725373355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M3" t="n">
-        <v>139.8012812763547</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>274.1733865808121</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>408.5454918852695</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>542.917597189727</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>542.917597189727</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T3" t="n">
-        <v>542.917597189727</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U3" t="n">
-        <v>542.917597189727</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V3" t="n">
-        <v>542.917597189727</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W3" t="n">
-        <v>542.917597189727</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X3" t="n">
-        <v>542.917597189727</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y3" t="n">
-        <v>542.917597189727</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>542.917597189727</v>
+        <v>542.9242582084119</v>
       </c>
       <c r="S4" t="n">
-        <v>542.917597189727</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="T4" t="n">
-        <v>542.917597189727</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U4" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>422.159561936012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.9587552745337</v>
+        <v>423.9580147683919</v>
       </c>
       <c r="C5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K5" t="n">
-        <v>217.2290015210576</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>217.2290015210576</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>351.601106825515</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
-        <v>485.9732121299725</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O5" t="n">
-        <v>542.917597189727</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P5" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q5" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>452.2793106855803</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>315.1789073548412</v>
+        <v>1984.746642048351</v>
       </c>
       <c r="T5" t="n">
-        <v>285.0591586052728</v>
+        <v>1760.387695779362</v>
       </c>
       <c r="U5" t="n">
-        <v>285.0591586052728</v>
+        <v>1505.502359493356</v>
       </c>
       <c r="V5" t="n">
-        <v>285.0591586052728</v>
+        <v>1168.523085389297</v>
       </c>
       <c r="W5" t="n">
-        <v>285.0591586052728</v>
+        <v>805.9881552468985</v>
       </c>
       <c r="X5" t="n">
-        <v>285.0591586052728</v>
+        <v>423.9580147683919</v>
       </c>
       <c r="Y5" t="n">
-        <v>147.9587552745337</v>
+        <v>423.9580147683919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.1784947070355</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>179.1784947070355</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>179.1784947070355</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E6" t="n">
-        <v>179.1784947070355</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F6" t="n">
-        <v>179.1784947070355</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G6" t="n">
-        <v>179.1784947070355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>79.24063725373355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>10.85835194379454</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
-        <v>10.85835194379454</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M6" t="n">
-        <v>139.8012812763547</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N6" t="n">
-        <v>274.1733865808121</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
-        <v>408.5454918852695</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>542.917597189727</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>483.1333282846728</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>346.0329249539336</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>208.9325216231945</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>179.1784947070355</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>179.1784947070355</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>179.1784947070355</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>179.1784947070355</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.1784947070355</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L7" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>230.1794491819377</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>93.07904585119854</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>10.85835194379454</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V7" t="n">
-        <v>10.85835194379454</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.85835194379454</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C8" t="n">
-        <v>10.85835194379454</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>145.230457248252</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>314.1132381987325</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>314.1132381987325</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4853435031899</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>542.917597189727</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>542.917597189727</v>
+        <v>1975.540466342621</v>
       </c>
       <c r="T8" t="n">
-        <v>542.917597189727</v>
+        <v>1751.181520073632</v>
       </c>
       <c r="U8" t="n">
-        <v>542.917597189727</v>
+        <v>1496.296183787626</v>
       </c>
       <c r="V8" t="n">
-        <v>422.159561936012</v>
+        <v>1159.316909683567</v>
       </c>
       <c r="W8" t="n">
-        <v>285.0591586052728</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="X8" t="n">
-        <v>147.9587552745337</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.85835194379454</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>445.00739801449</v>
+        <v>710.3492770987682</v>
       </c>
       <c r="C9" t="n">
-        <v>445.00739801449</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D9" t="n">
-        <v>445.00739801449</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E9" t="n">
-        <v>307.9069946837509</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F9" t="n">
-        <v>307.9069946837509</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>179.1784947070355</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>79.24063725373355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>10.85835194379454</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>10.85835194379454</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>139.8012812763547</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>274.1733865808121</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>408.5454918852695</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>542.917597189727</v>
+        <v>1729.918525671012</v>
       </c>
       <c r="V9" t="n">
-        <v>542.917597189727</v>
+        <v>1501.522903119346</v>
       </c>
       <c r="W9" t="n">
-        <v>542.917597189727</v>
+        <v>1260.207034352656</v>
       </c>
       <c r="X9" t="n">
-        <v>542.917597189727</v>
+        <v>1062.29004623045</v>
       </c>
       <c r="Y9" t="n">
-        <v>445.00739801449</v>
+        <v>869.7687198800292</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="C10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L10" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M10" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O10" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>481.2235098507805</v>
       </c>
       <c r="S10" t="n">
-        <v>230.1794491819377</v>
+        <v>481.2235098507805</v>
       </c>
       <c r="T10" t="n">
-        <v>93.07904585119854</v>
+        <v>481.2235098507805</v>
       </c>
       <c r="U10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="V10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="W10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="X10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.85835194379454</v>
+        <v>194.0332703398804</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>542.917597189727</v>
+        <v>1356.599639878817</v>
       </c>
       <c r="C11" t="n">
-        <v>542.917597189727</v>
+        <v>1356.599639878817</v>
       </c>
       <c r="D11" t="n">
-        <v>542.917597189727</v>
+        <v>1356.599639878817</v>
       </c>
       <c r="E11" t="n">
-        <v>542.917597189727</v>
+        <v>961.8139199849236</v>
       </c>
       <c r="F11" t="n">
-        <v>422.159561936012</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G11" t="n">
-        <v>285.0591586052728</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H11" t="n">
-        <v>147.9587552745337</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I11" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K11" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L11" t="n">
-        <v>45.36902758981768</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M11" t="n">
-        <v>179.7411328942751</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N11" t="n">
-        <v>179.7411328942751</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O11" t="n">
-        <v>314.1132381987325</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P11" t="n">
-        <v>448.4853435031899</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q11" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>542.917597189727</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S11" t="n">
-        <v>542.917597189727</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T11" t="n">
-        <v>542.917597189727</v>
+        <v>1750.643179396836</v>
       </c>
       <c r="U11" t="n">
-        <v>542.917597189727</v>
+        <v>1750.643179396836</v>
       </c>
       <c r="V11" t="n">
-        <v>542.917597189727</v>
+        <v>1750.643179396836</v>
       </c>
       <c r="W11" t="n">
-        <v>542.917597189727</v>
+        <v>1750.643179396836</v>
       </c>
       <c r="X11" t="n">
-        <v>542.917597189727</v>
+        <v>1750.643179396836</v>
       </c>
       <c r="Y11" t="n">
-        <v>542.917597189727</v>
+        <v>1750.643179396836</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>405.8171938589878</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C12" t="n">
-        <v>285.0591586052728</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D12" t="n">
-        <v>147.9587552745337</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E12" t="n">
-        <v>10.85835194379454</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K12" t="n">
-        <v>139.8012812763547</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L12" t="n">
-        <v>274.1733865808121</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M12" t="n">
-        <v>408.5454918852695</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N12" t="n">
-        <v>542.917597189727</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O12" t="n">
-        <v>542.917597189727</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>405.8171938589878</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>405.8171938589878</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>405.8171938589878</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>405.8171938589878</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>405.8171938589878</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X12" t="n">
-        <v>405.8171938589878</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y12" t="n">
-        <v>405.8171938589878</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.91559052962182</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C13" t="n">
-        <v>70.91559052962182</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="D13" t="n">
-        <v>70.91559052962182</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="E13" t="n">
-        <v>70.91559052962182</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="F13" t="n">
-        <v>70.91559052962182</v>
+        <v>98.91498366235177</v>
       </c>
       <c r="G13" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K13" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L13" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O13" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P13" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>230.1794491819377</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>93.07904585119854</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>70.91559052962182</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V13" t="n">
-        <v>70.91559052962182</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W13" t="n">
-        <v>70.91559052962182</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X13" t="n">
-        <v>70.91559052962182</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.91559052962182</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>452.2793106855803</v>
+        <v>1482.810319272953</v>
       </c>
       <c r="C14" t="n">
-        <v>452.2793106855803</v>
+        <v>1100.876560605761</v>
       </c>
       <c r="D14" t="n">
-        <v>452.2793106855803</v>
+        <v>728.0525958329843</v>
       </c>
       <c r="E14" t="n">
-        <v>422.159561936012</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0591586052728</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G14" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K14" t="n">
-        <v>145.230457248252</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L14" t="n">
-        <v>279.6025625527094</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M14" t="n">
-        <v>408.5454918852695</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N14" t="n">
-        <v>408.5454918852695</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O14" t="n">
-        <v>542.917597189727</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P14" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q14" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>452.2793106855803</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>452.2793106855803</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T14" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U14" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V14" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W14" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X14" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y14" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>483.1333282846728</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C15" t="n">
-        <v>483.1333282846728</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D15" t="n">
-        <v>479.7633386113138</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E15" t="n">
-        <v>342.6629352805746</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F15" t="n">
-        <v>207.969137230449</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G15" t="n">
-        <v>79.24063725373355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
-        <v>79.24063725373355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K15" t="n">
-        <v>10.85835194379454</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L15" t="n">
-        <v>145.230457248252</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M15" t="n">
-        <v>274.1733865808121</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N15" t="n">
-        <v>274.1733865808121</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O15" t="n">
-        <v>408.5454918852695</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>483.1333282846728</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>483.1333282846728</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>483.1333282846728</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>483.1333282846728</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>483.1333282846728</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>483.1333282846728</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X15" t="n">
-        <v>483.1333282846728</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y15" t="n">
-        <v>483.1333282846728</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D16" t="n">
-        <v>70.91559052962182</v>
+        <v>133.8213686639943</v>
       </c>
       <c r="E16" t="n">
-        <v>70.91559052962182</v>
+        <v>133.8213686639943</v>
       </c>
       <c r="F16" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K16" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L16" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O16" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P16" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S16" t="n">
-        <v>230.1794491819377</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T16" t="n">
-        <v>93.07904585119854</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.91559052962182</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2010.574518555815</v>
+        <v>752.7697250094786</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.574518555815</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D17" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E17" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F17" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K17" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M17" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N17" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O17" t="n">
         <v>1778.623654917371</v>
@@ -5539,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U17" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V17" t="n">
-        <v>2010.574518555815</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W17" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X17" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="Y17" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D18" t="n">
-        <v>161.3375945908657</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E18" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F18" t="n">
         <v>42.02425610119923</v>
@@ -5603,13 +5603,13 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N18" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O18" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P18" t="n">
         <v>2101.212805059961</v>
@@ -5618,28 +5618,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V18" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>313.3481969055543</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W19" t="n">
-        <v>42.02425610119923</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X19" t="n">
         <v>42.02425610119923</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>644.5870563847161</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C20" t="n">
-        <v>644.5870563847161</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D20" t="n">
-        <v>644.5870563847161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E20" t="n">
-        <v>644.5870563847161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F20" t="n">
-        <v>644.5870563847161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G20" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5779,25 +5779,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>1975.540466342621</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>1751.181520073632</v>
       </c>
       <c r="U20" t="n">
-        <v>1344.101260631174</v>
+        <v>1496.296183787626</v>
       </c>
       <c r="V20" t="n">
-        <v>1007.121986527115</v>
+        <v>1159.316909683567</v>
       </c>
       <c r="W20" t="n">
-        <v>644.5870563847161</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="X20" t="n">
-        <v>644.5870563847161</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="Y20" t="n">
-        <v>644.5870563847161</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>461.879904359699</v>
+        <v>692.6706591732259</v>
       </c>
       <c r="C21" t="n">
-        <v>300.1762316006536</v>
+        <v>530.9669864141806</v>
       </c>
       <c r="D21" t="n">
-        <v>210.3443988644402</v>
+        <v>392.1283494043927</v>
       </c>
       <c r="E21" t="n">
-        <v>210.3443988644402</v>
+        <v>245.1003394612639</v>
       </c>
       <c r="F21" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H21" t="n">
         <v>110.4065414111382</v>
@@ -5831,52 +5831,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K21" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L21" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O21" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P21" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T21" t="n">
-        <v>1699.943945333632</v>
+        <v>1930.734700147159</v>
       </c>
       <c r="U21" t="n">
-        <v>1481.449152931943</v>
+        <v>1712.239907745469</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.053530380276</v>
+        <v>1483.844285193803</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.737661613587</v>
+        <v>1242.528416427113</v>
       </c>
       <c r="X21" t="n">
-        <v>813.8206734913811</v>
+        <v>1044.611428304908</v>
       </c>
       <c r="Y21" t="n">
-        <v>621.2993471409599</v>
+        <v>852.0901019544867</v>
       </c>
     </row>
     <row r="22">
@@ -5943,16 +5943,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V22" t="n">
-        <v>495.3118790135463</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W22" t="n">
-        <v>495.3118790135463</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>264.0594149089221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
         <v>42.02425610119923</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.0623394968745</v>
+        <v>756.7792891710826</v>
       </c>
       <c r="C23" t="n">
-        <v>187.1285808296819</v>
+        <v>374.84553050389</v>
       </c>
       <c r="D23" t="n">
-        <v>187.1285808296819</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E23" t="n">
-        <v>187.1285808296819</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F23" t="n">
-        <v>187.1285808296819</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G23" t="n">
-        <v>187.1285808296819</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H23" t="n">
         <v>42.02425610119923</v>
@@ -6013,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.677874917562</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X23" t="n">
-        <v>1356.647734439056</v>
+        <v>756.7792891710826</v>
       </c>
       <c r="Y23" t="n">
-        <v>963.1058790148937</v>
+        <v>756.7792891710826</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>624.9395457940723</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>624.9395457940723</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>486.1009087842844</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>339.0728988411556</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6071,49 +6071,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>407.8461012713149</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O24" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P24" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>784.3589885753331</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>340.9045481628106</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>53.71430865191041</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>53.71430865191041</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>931.5972696392735</v>
+        <v>1392.172032768807</v>
       </c>
       <c r="C26" t="n">
-        <v>549.6635109720808</v>
+        <v>1010.238274101614</v>
       </c>
       <c r="D26" t="n">
-        <v>176.8395461993043</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E26" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F26" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6250,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W26" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="X26" t="n">
-        <v>1719.182664581455</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="Y26" t="n">
-        <v>1325.640809157293</v>
+        <v>1786.215572286826</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6314,13 +6314,13 @@
         <v>331.768955194494</v>
       </c>
       <c r="M27" t="n">
-        <v>816.8023087047204</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N27" t="n">
-        <v>1328.067954827843</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O27" t="n">
-        <v>1720.267905611993</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
         <v>1943.441175274367</v>
@@ -6329,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T27" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1822.933743753217</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V27" t="n">
-        <v>1594.538121201551</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W27" t="n">
-        <v>1353.222252434861</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X27" t="n">
-        <v>1155.305264312656</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>514.5196943513969</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>345.5999457192469</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
         <v>42.02425610119923</v>
@@ -6405,31 +6405,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>535.5461600008207</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>535.5461600008207</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1639.88911800351</v>
+        <v>840.0620013142038</v>
       </c>
       <c r="C29" t="n">
-        <v>1639.88911800351</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D29" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E29" t="n">
-        <v>872.279433336841</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F29" t="n">
-        <v>458.1282426470113</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
         <v>354.1631724187877</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T29" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V29" t="n">
-        <v>2101.212805059961</v>
+        <v>1222.09214179271</v>
       </c>
       <c r="W29" t="n">
-        <v>2101.212805059961</v>
+        <v>1222.09214179271</v>
       </c>
       <c r="X29" t="n">
-        <v>2033.93265752153</v>
+        <v>840.0620013142038</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.93265752153</v>
+        <v>840.0620013142038</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L30" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M30" t="n">
-        <v>892.8794547815413</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N30" t="n">
-        <v>1404.145100904663</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O30" t="n">
-        <v>1796.345051688814</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P30" t="n">
-        <v>2098.440970964512</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W30" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1738.073308446179</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C31" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D31" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E31" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F31" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K31" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L31" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M31" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N31" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O31" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>1951.691023674339</v>
+        <v>395.1955943238988</v>
       </c>
       <c r="V31" t="n">
-        <v>1951.691023674339</v>
+        <v>395.1955943238988</v>
       </c>
       <c r="W31" t="n">
-        <v>1951.691023674339</v>
+        <v>395.1955943238988</v>
       </c>
       <c r="X31" t="n">
-        <v>1738.073308446179</v>
+        <v>395.1955943238988</v>
       </c>
       <c r="Y31" t="n">
-        <v>1738.073308446179</v>
+        <v>395.1955943238988</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1707.670949635799</v>
+        <v>1129.603253943859</v>
       </c>
       <c r="C32" t="n">
-        <v>1325.737190968607</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.737190968607</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E32" t="n">
-        <v>930.9514710747135</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F32" t="n">
-        <v>930.9514710747135</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G32" t="n">
-        <v>514.8474845289015</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
@@ -6724,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2101.212805059961</v>
+        <v>2084.002794476323</v>
       </c>
       <c r="S32" t="n">
-        <v>2101.212805059961</v>
+        <v>2084.002794476323</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.212805059961</v>
+        <v>2084.002794476323</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.212805059961</v>
+        <v>1829.117458190317</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.212805059961</v>
+        <v>1492.138184086258</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.212805059961</v>
+        <v>1129.603253943859</v>
       </c>
       <c r="X32" t="n">
-        <v>2101.212805059961</v>
+        <v>1129.603253943859</v>
       </c>
       <c r="Y32" t="n">
-        <v>1707.670949635799</v>
+        <v>1129.603253943859</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N33" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O33" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P33" t="n">
         <v>2101.212805059961</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1569.153559814029</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="C34" t="n">
-        <v>1569.153559814029</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W34" t="n">
-        <v>1815.05640357736</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X34" t="n">
-        <v>1583.803939472736</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y34" t="n">
-        <v>1569.153559814029</v>
+        <v>64.85810302850862</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.4447788886692</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="C35" t="n">
-        <v>141.4447788886692</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>575.9594884850392</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H35" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
         <v>114.0228003740049</v>
@@ -6961,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S35" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T35" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V35" t="n">
-        <v>1673.595244451756</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W35" t="n">
-        <v>1311.060314309357</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="X35" t="n">
-        <v>929.0301738308503</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="Y35" t="n">
-        <v>535.4883184066883</v>
+        <v>990.1106791748689</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>552.412421524471</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C36" t="n">
-        <v>552.412421524471</v>
+        <v>496.2110458173569</v>
       </c>
       <c r="D36" t="n">
-        <v>552.412421524471</v>
+        <v>357.3724088075689</v>
       </c>
       <c r="E36" t="n">
-        <v>405.3844115813423</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F36" t="n">
-        <v>270.6906135312166</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G36" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
@@ -7040,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>1969.325772550803</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>1969.325772550803</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V37" t="n">
-        <v>1969.325772550803</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W37" t="n">
-        <v>1969.325772550803</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1707.169265541942</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C38" t="n">
-        <v>1325.235506874749</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D38" t="n">
-        <v>952.4115421019731</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E38" t="n">
-        <v>557.6258222080799</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F38" t="n">
-        <v>143.4746315182502</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G38" t="n">
         <v>42.02425610119923</v>
@@ -7171,10 +7171,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J38" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.13883322726</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.13883322726</v>
       </c>
       <c r="T38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.13883322726</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.13883322726</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.13883322726</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.13883322726</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.212805059961</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="Y38" t="n">
-        <v>2101.212805059961</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
@@ -7262,13 +7262,13 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N39" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
         <v>2101.212805059961</v>
@@ -7280,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T39" t="n">
-        <v>1912.527701225946</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U39" t="n">
-        <v>1912.527701225946</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V39" t="n">
-        <v>1684.13207867428</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.194773857131</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="C40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="D40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="E40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>1814.022565549061</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.153559814029</v>
+        <v>487.5533028045263</v>
       </c>
       <c r="W40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="X40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="Y40" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1296.083027997165</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C41" t="n">
-        <v>914.149269329972</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D41" t="n">
-        <v>541.3253045571955</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E41" t="n">
-        <v>214.8414548924032</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F41" t="n">
-        <v>214.8414548924032</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G41" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H41" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119917</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0485455037339</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M41" t="n">
         <v>1095.287711756822</v>
@@ -7435,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T41" t="n">
-        <v>1689.624883421327</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U41" t="n">
-        <v>1689.624883421327</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V41" t="n">
-        <v>1689.624883421327</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W41" t="n">
-        <v>1689.624883421327</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X41" t="n">
-        <v>1689.624883421327</v>
+        <v>1184.491372473864</v>
       </c>
       <c r="Y41" t="n">
-        <v>1296.083027997165</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>753.0168738400023</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C42" t="n">
-        <v>591.313201080957</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D42" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E42" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F42" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
         <v>42.02425610119923</v>
@@ -7490,25 +7490,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L42" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M42" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N42" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O42" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P42" t="n">
-        <v>1943.441175274367</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
@@ -7520,22 +7520,22 @@
         <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>1948.413318072701</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1772.586122412246</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1544.19049986058</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1302.87463109389</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>1104.957642971684</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.4363166212631</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1569.153559814029</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="C43" t="n">
-        <v>1569.153559814029</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="D43" t="n">
-        <v>1569.153559814029</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="E43" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K43" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L43" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M43" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N43" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O43" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>2101.212805059961</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.477500618384</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.153559814029</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="X43" t="n">
-        <v>1569.153559814029</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="Y43" t="n">
-        <v>1569.153559814029</v>
+        <v>346.5139253141033</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1126.398434748134</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="C44" t="n">
-        <v>1126.398434748134</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="D44" t="n">
-        <v>1126.398434748134</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E44" t="n">
-        <v>731.6127148542412</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F44" t="n">
-        <v>317.4615241644115</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G44" t="n">
-        <v>42.02425610119924</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H44" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
         <v>114.0228003740049</v>
@@ -7678,22 +7678,22 @@
         <v>1913.983829690315</v>
       </c>
       <c r="T44" t="n">
-        <v>1913.983829690315</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U44" t="n">
-        <v>1913.983829690315</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V44" t="n">
-        <v>1913.983829690315</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W44" t="n">
-        <v>1913.983829690315</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.983829690315</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="Y44" t="n">
-        <v>1520.441974266153</v>
+        <v>747.6694952766663</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>753.0168738400023</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>591.313201080957</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
         <v>42.02425610119923</v>
@@ -7739,10 +7739,10 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N45" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O45" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
         <v>2101.212805059961</v>
@@ -7751,28 +7751,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1888.629049167647</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1772.586122412246</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1544.19049986058</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1302.87463109389</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>1104.957642971684</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>912.4363166212631</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="C46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="D46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I46" t="n">
         <v>42.02425610119923</v>
@@ -7830,28 +7830,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S46" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T46" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U46" t="n">
-        <v>328.1806575838001</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="V46" t="n">
-        <v>328.1806575838001</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="W46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="X46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K2" t="n">
-        <v>309.0683871382489</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>327.2896114605463</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8060,25 +8060,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>184.8665114499773</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N3" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K5" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>244.4743776485593</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8297,25 +8297,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>245.7292857258421</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>242.4445403651401</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N8" t="n">
-        <v>221.2573825015464</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8537,22 +8537,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>236.9605242319105</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.4645907423242</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>226.4194804924309</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8771,22 +8771,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>242.2415523308689</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>248.3048328685795</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>251.2133018590716</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>327.2896114605463</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>317.4016976613613</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9008,22 +9008,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>248.3048328685795</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>245.7292857258421</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>244.5836053215751</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q15" t="n">
         <v>113.7351914448925</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9251,7 +9251,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>376.4077763449607</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9260,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9418,7 +9418,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9488,19 +9488,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>367.9315448499079</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,13 +9719,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>448.8511326829348</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9895,7 +9895,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9962,7 +9962,7 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9971,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>334.281751137652</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>552.3412859060218</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.5350238645387</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10436,7 +10436,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10445,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>113.7351914448925</v>
@@ -10840,7 +10840,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10910,7 +10910,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10919,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11138,7 +11138,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11147,7 +11147,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>217.0424937332492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11156,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>129.0110038467633</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11387,13 +11387,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>113.7351914448925</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.62728631851783</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886719</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>116.6070836257142</v>
+        <v>153.9101653635506</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7878856078477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.24409343240559</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22752,28 +22752,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>117.1789128644329</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>138.5774964959838</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>93.21054016614625</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.08540792221393</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -22804,7 +22804,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>35.3596275058602</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.62728631851783</v>
+        <v>159.7870878735604</v>
       </c>
       <c r="T5" t="n">
-        <v>192.2968055442263</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>15.54209281995537</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>51.0688534982429</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>186.8533578306755</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>75.84326567291757</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>202.9198501474611</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -23023,10 +23023,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>150.6729739248876</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>214.0590264618402</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>223.1801815435432</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>141.1793996525907</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>9.828330546265732</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.66501590343239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,7 +23187,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>12.29716427433382</v>
+        <v>56.09517199037793</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291757</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>202.9198501474611</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23266,19 +23266,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>290.4592238817535</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>193.7636623612321</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.3596275058602</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>150.1400166548597</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>40.53618113027703</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.7208513422583</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>9.828330546265732</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -23387,25 +23387,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>15.54209281995537</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,19 +23418,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>110.9087308602875</v>
       </c>
       <c r="H13" t="n">
         <v>157.7789187685189</v>
@@ -23439,7 +23439,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>75.84326567291757</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>262.3765163474301</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>361.0193114328816</v>
+        <v>123.6127530408409</v>
       </c>
       <c r="F14" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>276.2135473829221</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>193.7636623612321</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.3364829231459</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134.1139608630646</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>9.828330546265732</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>229.0391735694963</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,13 +23658,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>60.07670698731357</v>
       </c>
       <c r="G16" t="n">
         <v>167.2305511458285</v>
@@ -23676,7 +23676,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>75.84326567291757</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>262.3765163474301</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>43.57213198637277</v>
       </c>
       <c r="D17" t="n">
-        <v>133.6035419151749</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23788,13 +23788,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
@@ -23819,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>14.6841360714634</v>
+        <v>269.8144612536709</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23971,10 +23971,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -23983,13 +23983,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>315.987862861628</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>150.6729739248876</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24053,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>48.51673623083873</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>18.02492893200034</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V22" t="n">
-        <v>180.1440452869121</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>185.839780177466</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>130.3705686912495</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>161.4290450200295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.7216854425708</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>151.9998556436557</v>
       </c>
       <c r="E26" t="n">
-        <v>257.3707254978302</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.3364829231459</v>
@@ -24508,10 +24508,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.7927962080468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,16 +24612,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>130.1396474315511</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
         <v>59.456666199969</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24657,13 +24657,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>27.46376809698967</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>311.6024930106742</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>208.8778621094304</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24852,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
         <v>157.7789187685189</v>
@@ -24885,7 +24885,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
         <v>211.5726649703493</v>
@@ -24894,7 +24894,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>107.2193091627906</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24903,7 +24903,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>17.45840138769913</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>32.48709231853053</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>72.69399316130313</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24973,19 +24973,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>128.9356657824786</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25131,19 +25131,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.3109313575256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>270.6694075654534</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>212.8401282790162</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.62719199312433</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>134.8880398585326</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
         <v>157.7789187685189</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -25365,19 +25365,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4309694012592</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>311.5070750174734</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>32.23867152473066</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
@@ -25456,7 +25456,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>28.09477831004492</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -25605,13 +25605,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
-        <v>15.7076357194797</v>
+        <v>172.4630548399823</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25630,25 +25630,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>67.61885152680975</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>301.4690482378572</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>42.2409207738217</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.2305511458285</v>
@@ -25842,13 +25842,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>59.02445684309302</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>14.68413607146363</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>139.2600512977737</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>12.31971086392537</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>101.4273469898254</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -26070,7 +26070,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>211.5726649703493</v>
@@ -26079,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>40.87452179009284</v>
+        <v>48.36726184743185</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387590.7055972716</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387590.7055972717</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387590.7055972717</v>
+        <v>664260.7215509247</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387590.7055972717</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387590.7055972717</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664260.7215509248</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664260.7215509248</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664260.7215509247</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664260.7215509248</v>
+        <v>664260.7215509247</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664260.7215509246</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664260.7215509248</v>
+        <v>664260.7215509251</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>664260.7215509252</v>
+        <v>664260.7215509248</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64598.4509328786</v>
+        <v>110710.1202584875</v>
       </c>
       <c r="C2" t="n">
-        <v>64598.45093287859</v>
+        <v>110710.1202584875</v>
       </c>
       <c r="D2" t="n">
-        <v>64598.45093287862</v>
+        <v>110710.1202584875</v>
       </c>
       <c r="E2" t="n">
-        <v>64598.45093287861</v>
+        <v>110710.1202584875</v>
       </c>
       <c r="F2" t="n">
-        <v>64598.45093287861</v>
+        <v>110710.1202584875</v>
       </c>
       <c r="G2" t="n">
         <v>110710.1202584875</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>176041.1847175274</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106776.3355122783</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>35512.78294977724</v>
+        <v>137442.4307917771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>93751.32501729493</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="C4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="D4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="E4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="F4" t="n">
-        <v>117.6979542513729</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="G4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="H4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="I4" t="n">
         <v>399.9854922104112</v>
@@ -26453,7 +26453,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="N4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="O4" t="n">
         <v>399.9854922104112</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41879.94747728384</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="C5" t="n">
-        <v>41879.94747728384</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="D5" t="n">
-        <v>41879.94747728384</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>8252.347477283849</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="F5" t="n">
-        <v>8252.347477283849</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="G5" t="n">
         <v>31938.43463691141</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22885.23797940982</v>
+        <v>-139416.6740746674</v>
       </c>
       <c r="C6" t="n">
-        <v>22600.80550134338</v>
+        <v>36624.5106428599</v>
       </c>
       <c r="D6" t="n">
-        <v>22600.80550134341</v>
+        <v>36624.5106428599</v>
       </c>
       <c r="E6" t="n">
-        <v>56228.40550134338</v>
+        <v>70252.11064285989</v>
       </c>
       <c r="F6" t="n">
-        <v>56228.40550134338</v>
+        <v>70252.1106428599</v>
       </c>
       <c r="G6" t="n">
-        <v>-28404.63538291262</v>
+        <v>70252.1106428599</v>
       </c>
       <c r="H6" t="n">
-        <v>78371.70012936569</v>
+        <v>70252.11064285989</v>
       </c>
       <c r="I6" t="n">
-        <v>78371.70012936569</v>
+        <v>70252.11064285989</v>
       </c>
       <c r="J6" t="n">
-        <v>42858.91717958845</v>
+        <v>-67190.32014891724</v>
       </c>
       <c r="K6" t="n">
-        <v>78371.70012936571</v>
+        <v>70252.11064285989</v>
       </c>
       <c r="L6" t="n">
-        <v>78371.70012936568</v>
+        <v>70252.11064285989</v>
       </c>
       <c r="M6" t="n">
-        <v>78371.70012936568</v>
+        <v>70252.1106428599</v>
       </c>
       <c r="N6" t="n">
-        <v>78371.70012936566</v>
+        <v>70252.1106428599</v>
       </c>
       <c r="O6" t="n">
-        <v>-15379.62488792923</v>
+        <v>70252.11064285987</v>
       </c>
       <c r="P6" t="n">
-        <v>78371.70012936568</v>
+        <v>70252.11064285989</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="G4" t="n">
         <v>525.3032012649903</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K2" t="n">
-        <v>130.2453831642022</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>135.7293992974317</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69.38260888833739</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7293992974317</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974317</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>57.51958086843889</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>130.2453831642022</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>135.7293992974317</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O6" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7293992974317</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
-        <v>135.7293992974317</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N8" t="n">
-        <v>34.85926832931628</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>130.2453831642022</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.7293992974317</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>34.8592683293163</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>135.7293992974317</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>130.2453831642022</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>135.7293992974317</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>135.7293992974317</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7293992974317</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>135.7293992974317</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>130.2453831642022</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>135.7293992974317</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>130.2453831642022</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>135.7293992974317</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35971,7 +35971,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>260.9238737833207</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -35980,7 +35980,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36208,19 +36208,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>252.0720962387968</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>333.3672301212949</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36454,10 +36454,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>489.93268031336</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N27" t="n">
         <v>516.4299455789112</v>
@@ -36691,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>225.4275451135086</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
         <v>159.3652826117113</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
-        <v>489.93268031336</v>
+        <v>436.8573833443818</v>
       </c>
       <c r="N30" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.799832419646239</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37165,7 +37165,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37630,7 +37630,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37639,7 +37639,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37867,7 +37867,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>101.5585911716093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
@@ -37876,10 +37876,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
